--- a/data/pca/factorExposure/factorExposure_2017-09-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02352630424257055</v>
+        <v>-0.008244265752225909</v>
       </c>
       <c r="C2">
-        <v>0.002802013695089949</v>
+        <v>0.04100213668634136</v>
       </c>
       <c r="D2">
-        <v>-0.01443766467703252</v>
+        <v>0.02916340774864175</v>
       </c>
       <c r="E2">
-        <v>0.01351748419755113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02399133434683933</v>
+      </c>
+      <c r="F2">
+        <v>-0.02417950626232742</v>
+      </c>
+      <c r="G2">
+        <v>0.02790927099262865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01298498511852915</v>
+        <v>-0.05195111556281251</v>
       </c>
       <c r="C3">
-        <v>0.04764705425058172</v>
+        <v>0.07780142984269392</v>
       </c>
       <c r="D3">
-        <v>-0.01399127542892749</v>
+        <v>0.01445625700168834</v>
       </c>
       <c r="E3">
-        <v>0.01171805822957771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08600146474520683</v>
+      </c>
+      <c r="F3">
+        <v>-0.07403142926494985</v>
+      </c>
+      <c r="G3">
+        <v>0.06961210458754705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02189474023428339</v>
+        <v>-0.0572747708085853</v>
       </c>
       <c r="C4">
-        <v>0.01648902125989407</v>
+        <v>0.06322297333146659</v>
       </c>
       <c r="D4">
-        <v>-0.06416858642254161</v>
+        <v>0.02249645081193838</v>
       </c>
       <c r="E4">
-        <v>-0.01161458839992744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01006464281536534</v>
+      </c>
+      <c r="F4">
+        <v>-0.007271704031961537</v>
+      </c>
+      <c r="G4">
+        <v>0.04877391974019282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01505577772801709</v>
+        <v>-0.03190152493647298</v>
       </c>
       <c r="C6">
-        <v>0.01998998161414534</v>
+        <v>0.05231043155186465</v>
       </c>
       <c r="D6">
-        <v>-0.08491951431129133</v>
+        <v>0.01594688408013158</v>
       </c>
       <c r="E6">
-        <v>0.002556268176305056</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0108008499302785</v>
+      </c>
+      <c r="F6">
+        <v>-0.006411760875233142</v>
+      </c>
+      <c r="G6">
+        <v>0.03050981610054183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01018004614353141</v>
+        <v>-0.01720714562556047</v>
       </c>
       <c r="C7">
-        <v>0.00333816177575337</v>
+        <v>0.03778694704401795</v>
       </c>
       <c r="D7">
-        <v>-0.04065388112785003</v>
+        <v>0.01309541123297508</v>
       </c>
       <c r="E7">
-        <v>-0.06764433290633121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01289382682115199</v>
+      </c>
+      <c r="F7">
+        <v>-0.001706765327366063</v>
+      </c>
+      <c r="G7">
+        <v>0.08125640085460366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001571683466516656</v>
+        <v>0.00345915037011592</v>
       </c>
       <c r="C8">
-        <v>-0.01008646329869158</v>
+        <v>0.019130018279193</v>
       </c>
       <c r="D8">
-        <v>-0.01413318016408027</v>
+        <v>0.003967209709854455</v>
       </c>
       <c r="E8">
-        <v>-0.005796894183167414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02094866596534553</v>
+      </c>
+      <c r="F8">
+        <v>-0.02280011873542379</v>
+      </c>
+      <c r="G8">
+        <v>0.02405671604516607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01456124816523802</v>
+        <v>-0.02947430222190776</v>
       </c>
       <c r="C9">
-        <v>0.01647134587147279</v>
+        <v>0.04371653063053688</v>
       </c>
       <c r="D9">
-        <v>-0.04614280086459942</v>
+        <v>0.01591030013390249</v>
       </c>
       <c r="E9">
-        <v>-0.001947442199954755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01056040187535145</v>
+      </c>
+      <c r="F9">
+        <v>-0.01541413972673839</v>
+      </c>
+      <c r="G9">
+        <v>0.03992594964956177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01008223976255957</v>
+        <v>-0.09475942501870301</v>
       </c>
       <c r="C10">
-        <v>0.1541321607253344</v>
+        <v>-0.1820097644942922</v>
       </c>
       <c r="D10">
-        <v>0.1280290383807751</v>
+        <v>-0.01786463989816644</v>
       </c>
       <c r="E10">
-        <v>-0.02173587868205234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01365385994085449</v>
+      </c>
+      <c r="F10">
+        <v>0.01150792666298775</v>
+      </c>
+      <c r="G10">
+        <v>0.04048461184386412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0001099498080986436</v>
+        <v>-0.03242101942833581</v>
       </c>
       <c r="C11">
-        <v>0.004912153504257923</v>
+        <v>0.05423573505836052</v>
       </c>
       <c r="D11">
-        <v>-0.04494380970426997</v>
+        <v>0.001828357080471243</v>
       </c>
       <c r="E11">
-        <v>0.01306549884840756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.00100527988693619</v>
+      </c>
+      <c r="F11">
+        <v>-0.01770226221273392</v>
+      </c>
+      <c r="G11">
+        <v>0.02268806106491221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005337373402989512</v>
+        <v>-0.03083445699111165</v>
       </c>
       <c r="C12">
-        <v>0.01309861493171416</v>
+        <v>0.04592268049524549</v>
       </c>
       <c r="D12">
-        <v>-0.04758801731230296</v>
+        <v>0.005855682881299362</v>
       </c>
       <c r="E12">
-        <v>0.004103073357309761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.00493457806042404</v>
+      </c>
+      <c r="F12">
+        <v>-0.003299397366978211</v>
+      </c>
+      <c r="G12">
+        <v>0.02679509234235455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02124290390718706</v>
+        <v>-0.01319676133467646</v>
       </c>
       <c r="C13">
-        <v>0.01501195026151031</v>
+        <v>0.03311087993800874</v>
       </c>
       <c r="D13">
-        <v>-0.01160124471847867</v>
+        <v>0.02481740109956075</v>
       </c>
       <c r="E13">
-        <v>0.008121292903891976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01881331112650318</v>
+      </c>
+      <c r="F13">
+        <v>-0.01567861639768589</v>
+      </c>
+      <c r="G13">
+        <v>0.03431377188470677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006944831084369328</v>
+        <v>-0.007071043296521851</v>
       </c>
       <c r="C14">
-        <v>0.01143481297422849</v>
+        <v>0.02719130807252079</v>
       </c>
       <c r="D14">
-        <v>-0.01797772818920621</v>
+        <v>0.008763506951592104</v>
       </c>
       <c r="E14">
-        <v>-0.009357798701952517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.007821447206190725</v>
+      </c>
+      <c r="F14">
+        <v>0.002401304861572509</v>
+      </c>
+      <c r="G14">
+        <v>0.04104489442406343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0004732053585464438</v>
+        <v>-0.03018568698798027</v>
       </c>
       <c r="C16">
-        <v>0.009672536819860503</v>
+        <v>0.04454352432759158</v>
       </c>
       <c r="D16">
-        <v>-0.05122236908567546</v>
+        <v>0.001393532648796894</v>
       </c>
       <c r="E16">
-        <v>0.007389521851274064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.003536507131187988</v>
+      </c>
+      <c r="F16">
+        <v>-0.008264607908407674</v>
+      </c>
+      <c r="G16">
+        <v>0.02484806707516128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01307864531998462</v>
+        <v>-0.024109619037371</v>
       </c>
       <c r="C19">
-        <v>0.02670083275677483</v>
+        <v>0.0516507817883605</v>
       </c>
       <c r="D19">
-        <v>-0.0290427724574484</v>
+        <v>0.01608637060093695</v>
       </c>
       <c r="E19">
-        <v>-0.002611018285799307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.04828466503243609</v>
+      </c>
+      <c r="F19">
+        <v>-0.0312036605197303</v>
+      </c>
+      <c r="G19">
+        <v>0.04968416008343276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01015912813467422</v>
+        <v>-0.01106055751701829</v>
       </c>
       <c r="C20">
-        <v>0.005569052262781321</v>
+        <v>0.03529056427439296</v>
       </c>
       <c r="D20">
-        <v>-0.01346010093644721</v>
+        <v>0.01311416494576674</v>
       </c>
       <c r="E20">
-        <v>0.001659915482478044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02108345272089096</v>
+      </c>
+      <c r="F20">
+        <v>0.001009623430110311</v>
+      </c>
+      <c r="G20">
+        <v>0.0390685308756649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01372872307745501</v>
+        <v>-0.01374702545792392</v>
       </c>
       <c r="C21">
-        <v>0.03640899885553769</v>
+        <v>0.03658149755480593</v>
       </c>
       <c r="D21">
-        <v>-0.02146493745388426</v>
+        <v>0.01616229388540864</v>
       </c>
       <c r="E21">
-        <v>-0.01732998938110735</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02738660321928478</v>
+      </c>
+      <c r="F21">
+        <v>-0.01088752202289194</v>
+      </c>
+      <c r="G21">
+        <v>0.06075424562836437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004783891191508703</v>
+        <v>-0.02458454113738771</v>
       </c>
       <c r="C24">
-        <v>0.005999168067974055</v>
+        <v>0.04730758490453166</v>
       </c>
       <c r="D24">
-        <v>-0.04575564528559994</v>
+        <v>0.006782754922430901</v>
       </c>
       <c r="E24">
-        <v>0.007882492239357618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.001058302053091763</v>
+      </c>
+      <c r="F24">
+        <v>-0.01487085966183356</v>
+      </c>
+      <c r="G24">
+        <v>0.02682056985729717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01105312294430678</v>
+        <v>-0.04089388279370354</v>
       </c>
       <c r="C25">
-        <v>0.02219554803555562</v>
+        <v>0.0548503240550389</v>
       </c>
       <c r="D25">
-        <v>-0.04483128704045363</v>
+        <v>0.01079865498200706</v>
       </c>
       <c r="E25">
-        <v>0.006801768942979636</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.007731364465937671</v>
+      </c>
+      <c r="F25">
+        <v>-0.00881677628018033</v>
+      </c>
+      <c r="G25">
+        <v>0.03264749500583623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02241621234047079</v>
+        <v>-0.01027968735257065</v>
       </c>
       <c r="C26">
-        <v>0.007556537390471274</v>
+        <v>0.009761116849899693</v>
       </c>
       <c r="D26">
-        <v>0.003795825360673881</v>
+        <v>0.02383949460215481</v>
       </c>
       <c r="E26">
-        <v>-0.008686829173243656</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.005622434868879398</v>
+      </c>
+      <c r="F26">
+        <v>-0.00295906226242024</v>
+      </c>
+      <c r="G26">
+        <v>0.03196741853892233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02801862453063421</v>
+        <v>-0.1216958111915093</v>
       </c>
       <c r="C28">
-        <v>0.2274411722660072</v>
+        <v>-0.2225444335996438</v>
       </c>
       <c r="D28">
-        <v>0.1781079380719915</v>
+        <v>-0.008780306120196457</v>
       </c>
       <c r="E28">
-        <v>-0.03329986902112164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.00137237782173072</v>
+      </c>
+      <c r="F28">
+        <v>0.01054673424436038</v>
+      </c>
+      <c r="G28">
+        <v>0.059465640616188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.00719994879402127</v>
+        <v>-0.01251832108929092</v>
       </c>
       <c r="C29">
-        <v>0.01678084708751203</v>
+        <v>0.02119039389729011</v>
       </c>
       <c r="D29">
-        <v>-0.01552960012835404</v>
+        <v>0.007470672623908616</v>
       </c>
       <c r="E29">
-        <v>-0.00511585560414062</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.008713844598699796</v>
+      </c>
+      <c r="F29">
+        <v>0.01164857219013294</v>
+      </c>
+      <c r="G29">
+        <v>0.03123896980565228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02284274914947737</v>
+        <v>-0.04407169611329223</v>
       </c>
       <c r="C30">
-        <v>0.001075738558761355</v>
+        <v>0.06897905145739573</v>
       </c>
       <c r="D30">
-        <v>-0.06268991643118373</v>
+        <v>0.02707176809345994</v>
       </c>
       <c r="E30">
-        <v>0.06222815982003762</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03145345721786647</v>
+      </c>
+      <c r="F30">
+        <v>-0.04655139667098412</v>
+      </c>
+      <c r="G30">
+        <v>0.008963030452252992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007104708570213858</v>
+        <v>-0.04472038853269953</v>
       </c>
       <c r="C31">
-        <v>0.04673588867828887</v>
+        <v>0.0323121404109047</v>
       </c>
       <c r="D31">
-        <v>-0.04194720153869692</v>
+        <v>0.00328777752408095</v>
       </c>
       <c r="E31">
-        <v>-0.002471491275158832</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.0064585700426309</v>
+      </c>
+      <c r="F31">
+        <v>0.03850319450395793</v>
+      </c>
+      <c r="G31">
+        <v>0.02693202438961293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007270106223777135</v>
+        <v>-0.0009968619717542167</v>
       </c>
       <c r="C32">
-        <v>0.0150009268265953</v>
+        <v>0.03437114073119593</v>
       </c>
       <c r="D32">
-        <v>-0.006126672039112261</v>
+        <v>-0.004161717094081958</v>
       </c>
       <c r="E32">
-        <v>-0.02793237063595228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.006322986899506428</v>
+      </c>
+      <c r="F32">
+        <v>-0.05100505724104284</v>
+      </c>
+      <c r="G32">
+        <v>0.05948919681650172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01201081990661995</v>
+        <v>-0.02511875611823009</v>
       </c>
       <c r="C33">
-        <v>0.02356010691525768</v>
+        <v>0.04974932663656381</v>
       </c>
       <c r="D33">
-        <v>-0.02209612256281783</v>
+        <v>0.01437519397480516</v>
       </c>
       <c r="E33">
-        <v>0.02528111338488555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01957392244961219</v>
+      </c>
+      <c r="F33">
+        <v>-0.02522291291136451</v>
+      </c>
+      <c r="G33">
+        <v>0.03591955088034212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.00502697617919857</v>
+        <v>-0.0433861851779426</v>
       </c>
       <c r="C34">
-        <v>0.01885381767818334</v>
+        <v>0.05537761422665162</v>
       </c>
       <c r="D34">
-        <v>-0.05088184007111001</v>
+        <v>-0.0053532438604544</v>
       </c>
       <c r="E34">
-        <v>-0.0007461247346664217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01068301083641244</v>
+      </c>
+      <c r="F34">
+        <v>-0.01857826228899037</v>
+      </c>
+      <c r="G34">
+        <v>0.03807251835650261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01165264083560166</v>
+        <v>-0.01063818272894217</v>
       </c>
       <c r="C36">
-        <v>0.01730303950772387</v>
+        <v>0.007596465232395388</v>
       </c>
       <c r="D36">
-        <v>-0.002417534687343566</v>
+        <v>0.01151625711211148</v>
       </c>
       <c r="E36">
-        <v>-0.002271284641421259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001237564672794273</v>
+      </c>
+      <c r="F36">
+        <v>0.00310783052046353</v>
+      </c>
+      <c r="G36">
+        <v>0.02518294255171417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006252124368501997</v>
+        <v>-0.03076252431690786</v>
       </c>
       <c r="C38">
-        <v>0.02658047224512366</v>
+        <v>0.02661856921825551</v>
       </c>
       <c r="D38">
-        <v>-0.02251810682557593</v>
+        <v>-0.007612058940702792</v>
       </c>
       <c r="E38">
-        <v>-0.00117485417821578</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004021912982901866</v>
+      </c>
+      <c r="F38">
+        <v>0.005129121169094409</v>
+      </c>
+      <c r="G38">
+        <v>0.03367070322515527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.00578757834864053</v>
+        <v>-0.02977066629507608</v>
       </c>
       <c r="C39">
-        <v>-0.01949207982304889</v>
+        <v>0.08179765957688742</v>
       </c>
       <c r="D39">
-        <v>-0.0944109633346303</v>
+        <v>0.01207477699534391</v>
       </c>
       <c r="E39">
-        <v>0.01717313363591422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01946627763251297</v>
+      </c>
+      <c r="F39">
+        <v>-0.03862100885107437</v>
+      </c>
+      <c r="G39">
+        <v>0.02892480762170147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01021227860416983</v>
+        <v>-0.01988060701601327</v>
       </c>
       <c r="C40">
-        <v>0.01492594880372659</v>
+        <v>0.03216028851763912</v>
       </c>
       <c r="D40">
-        <v>-0.038714126911067</v>
+        <v>0.01291746104080761</v>
       </c>
       <c r="E40">
-        <v>0.01052246896744254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01678454297554106</v>
+      </c>
+      <c r="F40">
+        <v>-0.01866002763057805</v>
+      </c>
+      <c r="G40">
+        <v>0.02547252163930921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005021227100499944</v>
+        <v>-0.01221064919754857</v>
       </c>
       <c r="C41">
-        <v>0.02001820280061151</v>
+        <v>-0.0004338129334692512</v>
       </c>
       <c r="D41">
-        <v>0.006917727795969457</v>
+        <v>0.003604220042459966</v>
       </c>
       <c r="E41">
-        <v>-0.003559165233871658</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002674755788004874</v>
+      </c>
+      <c r="F41">
+        <v>0.001906935838724768</v>
+      </c>
+      <c r="G41">
+        <v>0.01690124007750406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09385390038326451</v>
+        <v>-0.0176652518566367</v>
       </c>
       <c r="C42">
-        <v>0.02459301145568633</v>
+        <v>0.04549386595617603</v>
       </c>
       <c r="D42">
-        <v>-0.2217853417140142</v>
+        <v>0.09531691963273525</v>
       </c>
       <c r="E42">
-        <v>0.2978290049798228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04118764916477337</v>
+      </c>
+      <c r="F42">
+        <v>0.04676583792867123</v>
+      </c>
+      <c r="G42">
+        <v>-0.1738895687180089</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005859370024731252</v>
+        <v>-0.02736496066171789</v>
       </c>
       <c r="C43">
-        <v>0.01933106541021239</v>
+        <v>0.01015673955013066</v>
       </c>
       <c r="D43">
-        <v>0.01208350483952088</v>
+        <v>0.004008978994269681</v>
       </c>
       <c r="E43">
-        <v>0.0001964156789768432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.003413057675730946</v>
+      </c>
+      <c r="F43">
+        <v>0.003025607874947531</v>
+      </c>
+      <c r="G43">
+        <v>0.02250627210870261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002697394529562839</v>
+        <v>-0.01423547511886572</v>
       </c>
       <c r="C44">
-        <v>-0.003029350856399898</v>
+        <v>0.04958380130787631</v>
       </c>
       <c r="D44">
-        <v>-0.0298931315172485</v>
+        <v>0.006310026988686016</v>
       </c>
       <c r="E44">
-        <v>-0.0007506994327249205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01489926592100681</v>
+      </c>
+      <c r="F44">
+        <v>-0.008720172674457084</v>
+      </c>
+      <c r="G44">
+        <v>0.03963372118609899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01074944101705727</v>
+        <v>-0.005734920986013787</v>
       </c>
       <c r="C46">
-        <v>0.01747625297358694</v>
+        <v>0.0176075628531809</v>
       </c>
       <c r="D46">
-        <v>-0.01881429462817041</v>
+        <v>0.01189582407691804</v>
       </c>
       <c r="E46">
-        <v>0.003981277874602577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001370631777662335</v>
+      </c>
+      <c r="F46">
+        <v>0.01417091606847102</v>
+      </c>
+      <c r="G46">
+        <v>0.02725073879165552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001055349816039972</v>
+        <v>-0.073243518045415</v>
       </c>
       <c r="C47">
-        <v>0.05992630999976434</v>
+        <v>0.066377103559378</v>
       </c>
       <c r="D47">
-        <v>-0.05077723626727366</v>
+        <v>-0.005084378381541091</v>
       </c>
       <c r="E47">
-        <v>0.006954046784632683</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0083661801422202</v>
+      </c>
+      <c r="F47">
+        <v>0.0588323741927698</v>
+      </c>
+      <c r="G47">
+        <v>0.02435593273190758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002475358294845145</v>
+        <v>-0.02096836529654672</v>
       </c>
       <c r="C48">
-        <v>0.02719260244856554</v>
+        <v>0.01041217550680187</v>
       </c>
       <c r="D48">
-        <v>-0.01245392605511227</v>
+        <v>0.0008847085364262028</v>
       </c>
       <c r="E48">
-        <v>0.0002027876363825433</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002587998607985066</v>
+      </c>
+      <c r="F48">
+        <v>0.01345662478062716</v>
+      </c>
+      <c r="G48">
+        <v>0.02991242991657776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002262463189391459</v>
+        <v>-0.07685732885018602</v>
       </c>
       <c r="C50">
-        <v>0.04897505976805862</v>
+        <v>0.06815566215610215</v>
       </c>
       <c r="D50">
-        <v>-0.0643413545100593</v>
+        <v>-0.003485788152641896</v>
       </c>
       <c r="E50">
-        <v>-0.01747231165713878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01046507995995202</v>
+      </c>
+      <c r="F50">
+        <v>0.05821526427914896</v>
+      </c>
+      <c r="G50">
+        <v>0.04747207079580765</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006928967046026276</v>
+        <v>-0.01071395936837696</v>
       </c>
       <c r="C51">
-        <v>0.02030981290107722</v>
+        <v>0.027291615804173</v>
       </c>
       <c r="D51">
-        <v>0.01247010424571459</v>
+        <v>0.009015206542436595</v>
       </c>
       <c r="E51">
-        <v>-0.009962039020636469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.006260388735821626</v>
+      </c>
+      <c r="F51">
+        <v>-0.02489553829285114</v>
+      </c>
+      <c r="G51">
+        <v>0.05465848729589964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003794626776497079</v>
+        <v>-0.09019776003002589</v>
       </c>
       <c r="C53">
-        <v>0.07685194016639509</v>
+        <v>0.08245146202836301</v>
       </c>
       <c r="D53">
-        <v>-0.1082047838595894</v>
+        <v>-0.004983593473119824</v>
       </c>
       <c r="E53">
-        <v>0.005710789769083766</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03751477960821811</v>
+      </c>
+      <c r="F53">
+        <v>0.06870949869322905</v>
+      </c>
+      <c r="G53">
+        <v>0.02574829085189121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001264691375434141</v>
+        <v>-0.02779270117890755</v>
       </c>
       <c r="C54">
-        <v>0.03484340330468617</v>
+        <v>0.01022205605126001</v>
       </c>
       <c r="D54">
-        <v>0.01053114085987767</v>
+        <v>-0.002901390226542035</v>
       </c>
       <c r="E54">
-        <v>-0.01210704562616461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.001284081604715087</v>
+      </c>
+      <c r="F54">
+        <v>0.001192773683853909</v>
+      </c>
+      <c r="G54">
+        <v>0.03513285512657168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.00118070793770665</v>
+        <v>-0.07125050083521917</v>
       </c>
       <c r="C55">
-        <v>0.05416311890626463</v>
+        <v>0.07491380563560771</v>
       </c>
       <c r="D55">
-        <v>-0.0915063047513589</v>
+        <v>-0.00456501018027273</v>
       </c>
       <c r="E55">
-        <v>0.01566972016294057</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02452877429597517</v>
+      </c>
+      <c r="F55">
+        <v>0.06141386866794473</v>
+      </c>
+      <c r="G55">
+        <v>0.0102040716133334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0002794769074932076</v>
+        <v>-0.1412531605479552</v>
       </c>
       <c r="C56">
-        <v>0.09734268624870916</v>
+        <v>0.1067745244393548</v>
       </c>
       <c r="D56">
-        <v>-0.1360740511266882</v>
+        <v>-0.01358659470266628</v>
       </c>
       <c r="E56">
-        <v>0.01750799384383141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03413584276256408</v>
+      </c>
+      <c r="F56">
+        <v>0.1002914227844096</v>
+      </c>
+      <c r="G56">
+        <v>-0.00249787343289664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02267069700218692</v>
+        <v>-0.01071281785675303</v>
       </c>
       <c r="C57">
-        <v>0.01772645192129701</v>
+        <v>0.01065466607253497</v>
       </c>
       <c r="D57">
-        <v>-0.03848275278298879</v>
+        <v>0.02352117683262417</v>
       </c>
       <c r="E57">
-        <v>0.01226090995539931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02596527905802843</v>
+      </c>
+      <c r="F57">
+        <v>-0.01812463758839358</v>
+      </c>
+      <c r="G57">
+        <v>0.02040491555168385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009231676154986398</v>
+        <v>-0.08529341022538506</v>
       </c>
       <c r="C58">
-        <v>0.09107270318935398</v>
+        <v>0.05199342061685443</v>
       </c>
       <c r="D58">
-        <v>-0.09701038119371205</v>
+        <v>0.01352090460279772</v>
       </c>
       <c r="E58">
-        <v>0.2154581176591576</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9619240679700589</v>
+      </c>
+      <c r="F58">
+        <v>0.1444363622288995</v>
+      </c>
+      <c r="G58">
+        <v>0.007283604561631254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02397169054172344</v>
+        <v>-0.1601075715246077</v>
       </c>
       <c r="C59">
-        <v>0.2339881456833521</v>
+        <v>-0.2070076607129061</v>
       </c>
       <c r="D59">
-        <v>0.1776020462565865</v>
+        <v>-0.01565408744504226</v>
       </c>
       <c r="E59">
-        <v>-0.008489382663046505</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01211757133725745</v>
+      </c>
+      <c r="F59">
+        <v>-0.01035953853496084</v>
+      </c>
+      <c r="G59">
+        <v>0.02122117912187417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02973651994180592</v>
+        <v>-0.2861277577112347</v>
       </c>
       <c r="C60">
-        <v>0.1574302262885264</v>
+        <v>0.1028607920611665</v>
       </c>
       <c r="D60">
-        <v>-0.08233061538520017</v>
+        <v>0.009683180815140803</v>
       </c>
       <c r="E60">
-        <v>0.05276295053120056</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.03166471578213299</v>
+      </c>
+      <c r="F60">
+        <v>-0.3739571517614577</v>
+      </c>
+      <c r="G60">
+        <v>-0.07736009057839802</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002692598329851451</v>
+        <v>-0.03121877526408895</v>
       </c>
       <c r="C61">
-        <v>0.006128388686893207</v>
+        <v>0.06569116975586546</v>
       </c>
       <c r="D61">
-        <v>-0.06759450718417098</v>
+        <v>0.005343170783524145</v>
       </c>
       <c r="E61">
-        <v>0.01048002001807345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.00785546988596009</v>
+      </c>
+      <c r="F61">
+        <v>-0.02048456625920266</v>
+      </c>
+      <c r="G61">
+        <v>0.02674019693112534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007120224689555864</v>
+        <v>-0.01058889390137134</v>
       </c>
       <c r="C63">
-        <v>0.00689860173823407</v>
+        <v>0.02865997659139433</v>
       </c>
       <c r="D63">
-        <v>-0.0092848357640966</v>
+        <v>0.008198671985798196</v>
       </c>
       <c r="E63">
-        <v>-0.007585588308881729</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.006675432914309022</v>
+      </c>
+      <c r="F63">
+        <v>0.01958735380494509</v>
+      </c>
+      <c r="G63">
+        <v>0.03643241965631053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006620915631855627</v>
+        <v>-0.04930789234121578</v>
       </c>
       <c r="C64">
-        <v>0.03018875442439568</v>
+        <v>0.04032499400207112</v>
       </c>
       <c r="D64">
-        <v>-0.06668843997267394</v>
+        <v>0.005019128848364308</v>
       </c>
       <c r="E64">
-        <v>0.01340908010631024</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.007300432475661454</v>
+      </c>
+      <c r="F64">
+        <v>-0.003148412925386145</v>
+      </c>
+      <c r="G64">
+        <v>0.02347541442989663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01739873526592607</v>
+        <v>-0.0818971211112712</v>
       </c>
       <c r="C65">
-        <v>0.02554401877008491</v>
+        <v>0.06521144426379311</v>
       </c>
       <c r="D65">
-        <v>-0.09590446030401373</v>
+        <v>0.01507364556900013</v>
       </c>
       <c r="E65">
-        <v>0.005635886355113293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0106709875374034</v>
+      </c>
+      <c r="F65">
+        <v>-0.02644864976715787</v>
+      </c>
+      <c r="G65">
+        <v>0.01483612493469314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005241141295714563</v>
+        <v>-0.05029469393196561</v>
       </c>
       <c r="C66">
-        <v>-0.009333476915180529</v>
+        <v>0.1153422423936948</v>
       </c>
       <c r="D66">
-        <v>-0.1175622778872695</v>
+        <v>0.01149543201005826</v>
       </c>
       <c r="E66">
-        <v>0.03360244295872192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02073076397016758</v>
+      </c>
+      <c r="F66">
+        <v>-0.04511537487077193</v>
+      </c>
+      <c r="G66">
+        <v>0.02149155233171169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.00128886981562488</v>
+        <v>-0.05430564129590098</v>
       </c>
       <c r="C67">
-        <v>0.04426229135833335</v>
+        <v>0.03201994651792017</v>
       </c>
       <c r="D67">
-        <v>-0.02757157014698148</v>
+        <v>-0.005915586745097723</v>
       </c>
       <c r="E67">
-        <v>0.0007487909255937258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003430237779682131</v>
+      </c>
+      <c r="F67">
+        <v>0.006290061161016348</v>
+      </c>
+      <c r="G67">
+        <v>0.03132805433546464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04175192561164658</v>
+        <v>-0.1435154385264193</v>
       </c>
       <c r="C68">
-        <v>0.205158919358454</v>
+        <v>-0.2658926602339681</v>
       </c>
       <c r="D68">
-        <v>0.172569589197109</v>
+        <v>0.002417829425739117</v>
       </c>
       <c r="E68">
-        <v>-0.005048960437452238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01317380163238683</v>
+      </c>
+      <c r="F68">
+        <v>0.03590915796422821</v>
+      </c>
+      <c r="G68">
+        <v>0.02209596393816105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003325490869519897</v>
+        <v>-0.07649591721654196</v>
       </c>
       <c r="C69">
-        <v>0.04419063404333057</v>
+        <v>0.06764506864283078</v>
       </c>
       <c r="D69">
-        <v>-0.05918291406639436</v>
+        <v>-0.008899262175174404</v>
       </c>
       <c r="E69">
-        <v>0.003304272496033959</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02803775590666507</v>
+      </c>
+      <c r="F69">
+        <v>0.04578346983946408</v>
+      </c>
+      <c r="G69">
+        <v>0.02584687669774165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02928265219953814</v>
+        <v>-0.1405493394501358</v>
       </c>
       <c r="C71">
-        <v>0.1828338377178469</v>
+        <v>-0.2284077563495458</v>
       </c>
       <c r="D71">
-        <v>0.1550790711273103</v>
+        <v>-0.006895016766305023</v>
       </c>
       <c r="E71">
-        <v>-0.01718784286886253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02385424536215042</v>
+      </c>
+      <c r="F71">
+        <v>0.01093370529380894</v>
+      </c>
+      <c r="G71">
+        <v>0.03241591184349032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002931279395948467</v>
+        <v>-0.08033760522235081</v>
       </c>
       <c r="C72">
-        <v>0.04436905305099113</v>
+        <v>0.07452079329873666</v>
       </c>
       <c r="D72">
-        <v>-0.1390452273544395</v>
+        <v>-0.008589101816308686</v>
       </c>
       <c r="E72">
-        <v>0.0373976959535113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01690350793457201</v>
+      </c>
+      <c r="F72">
+        <v>-0.03548384455456871</v>
+      </c>
+      <c r="G72">
+        <v>0.006778748674777839</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04327450359658682</v>
+        <v>-0.3918503626294604</v>
       </c>
       <c r="C73">
-        <v>0.1894109429193063</v>
+        <v>0.1176817583480584</v>
       </c>
       <c r="D73">
-        <v>-0.1484878560522394</v>
+        <v>0.01494495398412974</v>
       </c>
       <c r="E73">
-        <v>0.1171082827498688</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.01045758679680177</v>
+      </c>
+      <c r="F73">
+        <v>-0.5534582266635193</v>
+      </c>
+      <c r="G73">
+        <v>-0.1279723751449418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001440537779697985</v>
+        <v>-0.1142828422337969</v>
       </c>
       <c r="C74">
-        <v>0.08921603218247297</v>
+        <v>0.1212076399879471</v>
       </c>
       <c r="D74">
-        <v>-0.1379544589718515</v>
+        <v>-0.01022636009486536</v>
       </c>
       <c r="E74">
-        <v>0.02478922387408326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01942103309128921</v>
+      </c>
+      <c r="F74">
+        <v>0.08706906043722695</v>
+      </c>
+      <c r="G74">
+        <v>0.03085069729596724</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001159483687809456</v>
+        <v>-0.2564793656824351</v>
       </c>
       <c r="C75">
-        <v>0.2178332158395835</v>
+        <v>0.1598404704539724</v>
       </c>
       <c r="D75">
-        <v>-0.23745211953026</v>
+        <v>-0.0309111574561611</v>
       </c>
       <c r="E75">
-        <v>0.05313306287693105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.0522983406991525</v>
+      </c>
+      <c r="F75">
+        <v>0.2112167876475176</v>
+      </c>
+      <c r="G75">
+        <v>-0.04818059308511326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005371481829723121</v>
+        <v>-0.1324336622426347</v>
       </c>
       <c r="C76">
-        <v>0.1527026859212935</v>
+        <v>0.127985633689837</v>
       </c>
       <c r="D76">
-        <v>-0.2210360465758844</v>
+        <v>-0.02121253879950492</v>
       </c>
       <c r="E76">
-        <v>0.01583878740525961</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04977436298960031</v>
+      </c>
+      <c r="F76">
+        <v>0.1446680058949614</v>
+      </c>
+      <c r="G76">
+        <v>0.01022091284773087</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01153185263704734</v>
+        <v>-0.06211413157184362</v>
       </c>
       <c r="C77">
-        <v>0.01016799515323175</v>
+        <v>0.06561636738269638</v>
       </c>
       <c r="D77">
-        <v>-0.06777675044119955</v>
+        <v>0.01266831024528279</v>
       </c>
       <c r="E77">
-        <v>0.01055771206334451</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.0451822515520419</v>
+      </c>
+      <c r="F77">
+        <v>-0.01852315992106702</v>
+      </c>
+      <c r="G77">
+        <v>0.05266039860062112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003786047742812624</v>
+        <v>-0.03849695565078074</v>
       </c>
       <c r="C78">
-        <v>0.01136736169617028</v>
+        <v>0.05176998800154565</v>
       </c>
       <c r="D78">
-        <v>-0.06619690282229207</v>
+        <v>0.005689878476786999</v>
       </c>
       <c r="E78">
-        <v>0.007639683891563383</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0178911444065564</v>
+      </c>
+      <c r="F78">
+        <v>-0.04270368442980447</v>
+      </c>
+      <c r="G78">
+        <v>0.03673587791300808</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0141220805153678</v>
+        <v>-0.05629219730888548</v>
       </c>
       <c r="C80">
-        <v>0.1430703642342953</v>
+        <v>0.06697116878592663</v>
       </c>
       <c r="D80">
-        <v>-0.2539293232004363</v>
+        <v>0.01239979722372945</v>
       </c>
       <c r="E80">
-        <v>-0.889631543084473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04326355787259214</v>
+      </c>
+      <c r="F80">
+        <v>-0.02864575159203466</v>
+      </c>
+      <c r="G80">
+        <v>0.9115539220242529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001581118338426374</v>
+        <v>-0.1442714441311679</v>
       </c>
       <c r="C81">
-        <v>0.1372111006579713</v>
+        <v>0.09679081322302051</v>
       </c>
       <c r="D81">
-        <v>-0.1561607011231454</v>
+        <v>-0.01588780873092841</v>
       </c>
       <c r="E81">
-        <v>0.02585600337768239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.02858203694036671</v>
+      </c>
+      <c r="F81">
+        <v>0.1388319098742123</v>
+      </c>
+      <c r="G81">
+        <v>0.009359469914244502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05180842802265157</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0403318372695437</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00258629629356245</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.02145307567908868</v>
+      </c>
+      <c r="F82">
+        <v>0.0105570614829148</v>
+      </c>
+      <c r="G82">
+        <v>-0.00581845756381828</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0063261248986874</v>
+        <v>-0.02848756097239147</v>
       </c>
       <c r="C83">
-        <v>0.02897194726470082</v>
+        <v>0.02184148039208191</v>
       </c>
       <c r="D83">
-        <v>-0.02350435728408432</v>
+        <v>0.004841980136767428</v>
       </c>
       <c r="E83">
-        <v>0.008047484732397669</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02327243611791106</v>
+      </c>
+      <c r="F83">
+        <v>-0.01924153370365069</v>
+      </c>
+      <c r="G83">
+        <v>0.02238063697096723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.009322230947654513</v>
+        <v>-0.2298763397888761</v>
       </c>
       <c r="C85">
-        <v>0.1687007455641407</v>
+        <v>0.1556228404912386</v>
       </c>
       <c r="D85">
-        <v>-0.2475767200803559</v>
+        <v>-0.01912902861804611</v>
       </c>
       <c r="E85">
-        <v>0.05818945793649433</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1004190948231487</v>
+      </c>
+      <c r="F85">
+        <v>0.1908176121685141</v>
+      </c>
+      <c r="G85">
+        <v>-0.06632297583216419</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00619198271002044</v>
+        <v>-0.01100371574833515</v>
       </c>
       <c r="C86">
-        <v>0.02264878871720954</v>
+        <v>0.01601352216111058</v>
       </c>
       <c r="D86">
-        <v>-0.006087973944786895</v>
+        <v>0.009589613600969903</v>
       </c>
       <c r="E86">
-        <v>0.02040360855822431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02628358102822877</v>
+      </c>
+      <c r="F86">
+        <v>-0.03713217137818281</v>
+      </c>
+      <c r="G86">
+        <v>0.05334406020955409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007024252709239801</v>
+        <v>-0.01945263708109433</v>
       </c>
       <c r="C87">
-        <v>0.01071752420317789</v>
+        <v>0.0269083954877452</v>
       </c>
       <c r="D87">
-        <v>-0.03898842323435809</v>
+        <v>0.01058769699005837</v>
       </c>
       <c r="E87">
-        <v>0.009049582355236053</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08279650804875682</v>
+      </c>
+      <c r="F87">
+        <v>-0.03544525477178812</v>
+      </c>
+      <c r="G87">
+        <v>0.04664057188419198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02635097307858874</v>
+        <v>-0.090009120956291</v>
       </c>
       <c r="C88">
-        <v>0.04561771645488604</v>
+        <v>0.06395526372054909</v>
       </c>
       <c r="D88">
-        <v>-0.03125478523516908</v>
+        <v>0.0218641050246226</v>
       </c>
       <c r="E88">
-        <v>0.008363888451937336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01434359359374626</v>
+      </c>
+      <c r="F88">
+        <v>0.01311209341004521</v>
+      </c>
+      <c r="G88">
+        <v>0.02223771599801483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05709782654908323</v>
+        <v>-0.2349516527617266</v>
       </c>
       <c r="C89">
-        <v>0.3562621726874641</v>
+        <v>-0.3631289363500437</v>
       </c>
       <c r="D89">
-        <v>0.265656116696792</v>
+        <v>-0.006745311548074198</v>
       </c>
       <c r="E89">
-        <v>-0.005289316453641224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01989878685857389</v>
+      </c>
+      <c r="F89">
+        <v>0.03190117868137832</v>
+      </c>
+      <c r="G89">
+        <v>0.03128213618823375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04257983350574344</v>
+        <v>-0.2027268646456054</v>
       </c>
       <c r="C90">
-        <v>0.2620536080693006</v>
+        <v>-0.3283288858229003</v>
       </c>
       <c r="D90">
-        <v>0.2467854956790762</v>
+        <v>-0.01002654152588592</v>
       </c>
       <c r="E90">
-        <v>-0.002896014155903396</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007540452670713404</v>
+      </c>
+      <c r="F90">
+        <v>0.04684020859506712</v>
+      </c>
+      <c r="G90">
+        <v>-0.000548665366840797</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001850055319517652</v>
+        <v>-0.2022188896804066</v>
       </c>
       <c r="C91">
-        <v>0.1767596825261928</v>
+        <v>0.1433498970489376</v>
       </c>
       <c r="D91">
-        <v>-0.2281426097905115</v>
+        <v>-0.02473763905874251</v>
       </c>
       <c r="E91">
-        <v>0.03657025412340929</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07040331142693496</v>
+      </c>
+      <c r="F91">
+        <v>0.1873009286886262</v>
+      </c>
+      <c r="G91">
+        <v>-0.00408373215578263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.009001739551585775</v>
+        <v>-0.2105383288308244</v>
       </c>
       <c r="C92">
-        <v>0.3311686258722094</v>
+        <v>-0.2537215929500111</v>
       </c>
       <c r="D92">
-        <v>0.1178944090196478</v>
+        <v>-0.04840386727169393</v>
       </c>
       <c r="E92">
-        <v>0.002796348791789528</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0008905770180138768</v>
+      </c>
+      <c r="F92">
+        <v>0.1125785049706851</v>
+      </c>
+      <c r="G92">
+        <v>0.06080256560735023</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03973486334865377</v>
+        <v>-0.2299721751280785</v>
       </c>
       <c r="C93">
-        <v>0.2996754152929443</v>
+        <v>-0.3297135299361332</v>
       </c>
       <c r="D93">
-        <v>0.248198644545649</v>
+        <v>-0.01762795508069826</v>
       </c>
       <c r="E93">
-        <v>0.02021757139374343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.004420981094191793</v>
+      </c>
+      <c r="F93">
+        <v>0.02790802106831468</v>
+      </c>
+      <c r="G93">
+        <v>-0.002788911436361405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01923608018357687</v>
+        <v>-0.2801347650694427</v>
       </c>
       <c r="C94">
-        <v>0.220513442089173</v>
+        <v>0.1754014761487973</v>
       </c>
       <c r="D94">
-        <v>-0.2199119450856055</v>
+        <v>-0.0129316296891911</v>
       </c>
       <c r="E94">
-        <v>0.08194098451518131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.08296503879968449</v>
+      </c>
+      <c r="F94">
+        <v>0.4225672915174427</v>
+      </c>
+      <c r="G94">
+        <v>-0.1390735950760489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006169378552338233</v>
+        <v>-0.08511708557651575</v>
       </c>
       <c r="C95">
-        <v>0.04670285407624722</v>
+        <v>0.0792438069760906</v>
       </c>
       <c r="D95">
-        <v>-0.07663842567533705</v>
+        <v>-0.007192392998829549</v>
       </c>
       <c r="E95">
-        <v>0.1219710319253586</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06082287558737063</v>
+      </c>
+      <c r="F95">
+        <v>-0.1991825505617157</v>
+      </c>
+      <c r="G95">
+        <v>-0.05913552719300143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004395513658261652</v>
+        <v>-0.2047642794052751</v>
       </c>
       <c r="C98">
-        <v>0.1620403621612402</v>
+        <v>0.05027688042758845</v>
       </c>
       <c r="D98">
-        <v>-0.1065809026466796</v>
+        <v>-0.01641681614385222</v>
       </c>
       <c r="E98">
-        <v>0.07364510253944306</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.03875678400365284</v>
+      </c>
+      <c r="F98">
+        <v>-0.2582785840578797</v>
+      </c>
+      <c r="G98">
+        <v>-0.027896013000511</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007042095238867582</v>
+        <v>-0.01237774452566975</v>
       </c>
       <c r="C101">
-        <v>0.01737729385717731</v>
+        <v>0.0212916886662663</v>
       </c>
       <c r="D101">
-        <v>-0.01612014984896212</v>
+        <v>0.00726070885600809</v>
       </c>
       <c r="E101">
-        <v>-0.005230163980389103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.009057165930225666</v>
+      </c>
+      <c r="F101">
+        <v>0.01347535358340651</v>
+      </c>
+      <c r="G101">
+        <v>0.03120446741966724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01373413106001807</v>
+        <v>-0.1206604187924276</v>
       </c>
       <c r="C102">
-        <v>0.1058379585414762</v>
+        <v>0.08559859870902525</v>
       </c>
       <c r="D102">
-        <v>-0.1175252045049644</v>
+        <v>0.0004764388498723598</v>
       </c>
       <c r="E102">
-        <v>0.02734768136423825</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03532207980531443</v>
+      </c>
+      <c r="F102">
+        <v>0.05512719392158662</v>
+      </c>
+      <c r="G102">
+        <v>-0.009714013075875771</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001807211353933365</v>
+        <v>-0.004515698764997945</v>
       </c>
       <c r="C103">
-        <v>0.01668543311511263</v>
+        <v>0.005340691627355507</v>
       </c>
       <c r="D103">
-        <v>-0.02936115428627773</v>
+        <v>0.0004183835022790789</v>
       </c>
       <c r="E103">
-        <v>-0.01056314649985635</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001958629472419684</v>
+      </c>
+      <c r="F103">
+        <v>0.00943963961004699</v>
+      </c>
+      <c r="G103">
+        <v>0.01740926487552252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.984795608011472</v>
+        <v>-0.03408000222216989</v>
       </c>
       <c r="C104">
-        <v>-0.1082561635994352</v>
+        <v>-0.03885620334006928</v>
       </c>
       <c r="D104">
-        <v>-0.002286387072820984</v>
+        <v>0.9873287872944295</v>
       </c>
       <c r="E104">
-        <v>-0.0271750416862431</v>
+        <v>-0.03293714361494268</v>
+      </c>
+      <c r="F104">
+        <v>0.04442360420369662</v>
+      </c>
+      <c r="G104">
+        <v>-0.008327457306111912</v>
       </c>
     </row>
   </sheetData>
